--- a/Models/resistors/table_reliability_resistor.xlsx
+++ b/Models/resistors/table_reliability_resistor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\study\МОТС\МО_ПН\test_271124\test_271124res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\bmstu\рл6111\МОТС\151224\Sources\Sources\Models\resistors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D1B9FE-3A95-46C5-A044-CC4EC790BEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7D3CE-7082-42B3-A0DB-1CF36D1EAAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="177">
   <si>
     <t>Наименование группы</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>pnom</t>
   </si>
 </sst>
 </file>
@@ -897,12 +900,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -925,12 +928,12 @@
     <col min="16" max="16" width="45.28515625" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" customWidth="1"/>
     <col min="18" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" customWidth="1"/>
     <col min="21" max="21" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,8 +988,11 @@
       <c r="R1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1041,8 +1047,11 @@
       <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1097,8 +1106,11 @@
       <c r="R3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1153,8 +1165,11 @@
       <c r="R4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1209,8 +1224,11 @@
       <c r="R5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1283,11 @@
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1321,8 +1342,11 @@
       <c r="R7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1377,8 +1401,11 @@
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1433,8 +1460,11 @@
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1489,8 +1519,11 @@
       <c r="R10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1545,8 +1578,11 @@
       <c r="R11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1601,8 +1637,11 @@
       <c r="R12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1657,8 +1696,11 @@
       <c r="R13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1713,8 +1755,11 @@
       <c r="R14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1769,8 +1814,11 @@
       <c r="R15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1825,8 +1873,11 @@
       <c r="R16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1881,8 +1932,11 @@
       <c r="R17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1937,8 +1991,11 @@
       <c r="R18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1993,8 +2050,11 @@
       <c r="R19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2049,8 +2109,11 @@
       <c r="R20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2105,8 +2168,11 @@
       <c r="R21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2161,8 +2227,11 @@
       <c r="R22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2217,8 +2286,11 @@
       <c r="R23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2273,8 +2345,11 @@
       <c r="R24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2329,8 +2404,11 @@
       <c r="R25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2385,8 +2463,11 @@
       <c r="R26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2441,8 +2522,11 @@
       <c r="R27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2497,8 +2581,11 @@
       <c r="R28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2553,8 +2640,11 @@
       <c r="R29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2609,8 +2699,11 @@
       <c r="R30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2665,8 +2758,11 @@
       <c r="R31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2721,8 +2817,11 @@
       <c r="R32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2777,8 +2876,11 @@
       <c r="R33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -2833,8 +2935,11 @@
       <c r="R34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -2889,8 +2994,11 @@
       <c r="R35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -2945,8 +3053,11 @@
       <c r="R36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3001,8 +3112,11 @@
       <c r="R37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -3043,7 +3157,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1">
         <v>3.7999999999999999E-2</v>
@@ -3057,8 +3171,11 @@
       <c r="R38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -3113,8 +3230,11 @@
       <c r="R39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3289,11 @@
       <c r="R40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -3225,8 +3348,11 @@
       <c r="R41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -3281,8 +3407,11 @@
       <c r="R42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -3337,8 +3466,11 @@
       <c r="R43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -3393,8 +3525,11 @@
       <c r="R44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -3449,8 +3584,11 @@
       <c r="R45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -3505,8 +3643,11 @@
       <c r="R46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -3561,8 +3702,11 @@
       <c r="R47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3617,8 +3761,11 @@
       <c r="R48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3673,8 +3820,11 @@
       <c r="R49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -3729,8 +3879,11 @@
       <c r="R50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -3785,8 +3938,11 @@
       <c r="R51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -3841,8 +3997,11 @@
       <c r="R52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -3897,8 +4056,11 @@
       <c r="R53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -3953,8 +4115,11 @@
       <c r="R54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -4009,8 +4174,11 @@
       <c r="R55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -4065,8 +4233,11 @@
       <c r="R56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="R57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -4177,8 +4351,11 @@
       <c r="R58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -4233,8 +4410,11 @@
       <c r="R59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -4289,8 +4469,11 @@
       <c r="R60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -4345,8 +4528,11 @@
       <c r="R61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -4401,8 +4587,11 @@
       <c r="R62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -4457,8 +4646,11 @@
       <c r="R63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -4513,8 +4705,11 @@
       <c r="R64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -4569,8 +4764,11 @@
       <c r="R65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -4625,8 +4823,11 @@
       <c r="R66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -4681,8 +4882,11 @@
       <c r="R67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -4737,8 +4941,11 @@
       <c r="R68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -4793,8 +5000,11 @@
       <c r="R69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -4849,8 +5059,11 @@
       <c r="R70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -4905,8 +5118,11 @@
       <c r="R71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -4961,8 +5177,11 @@
       <c r="R72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -5017,8 +5236,11 @@
       <c r="R73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -5073,8 +5295,11 @@
       <c r="R74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>143</v>
       </c>
@@ -5129,8 +5354,11 @@
       <c r="R75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -5185,8 +5413,11 @@
       <c r="R76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>143</v>
       </c>
@@ -5241,8 +5472,11 @@
       <c r="R77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>143</v>
       </c>
@@ -5297,8 +5531,11 @@
       <c r="R78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S78" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -5353,8 +5590,11 @@
       <c r="R79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -5409,8 +5649,11 @@
       <c r="R80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -5465,8 +5708,11 @@
       <c r="R81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -5520,11 +5766,15 @@
       </c>
       <c r="R82">
         <v>1</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>